--- a/grid_results2.xlsx
+++ b/grid_results2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7193,6 +7193,1393 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-90</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.4196274916278284</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.917240282098287</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-1.659879446029663</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-1.14820163071666</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.539102554321289</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.6703766028033655</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.699724649360023</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-0.5067583321074327</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.3988016301617435</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.453733747998311</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-1.903317904332986</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-0.007746831052959426</v>
+      </c>
+      <c r="R93" t="n">
+        <v>231</v>
+      </c>
+      <c r="S93" t="n">
+        <v>183</v>
+      </c>
+      <c r="T93" t="n">
+        <v>352</v>
+      </c>
+      <c r="U93" t="n">
+        <v>218</v>
+      </c>
+      <c r="V93" t="n">
+        <v>16.13284053048539</v>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-88</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.4196274916278284</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1.917243619958395</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-1.659867525100708</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-1.148213581447937</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.5390864610672</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.638550106679098</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.6997271670217485</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.5067615133419051</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.3988050516799052</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2.42306693759532</v>
+      </c>
+      <c r="P94" t="n">
+        <v>-1.942066251744339</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>-0.006849954931775821</v>
+      </c>
+      <c r="R94" t="n">
+        <v>231</v>
+      </c>
+      <c r="S94" t="n">
+        <v>183</v>
+      </c>
+      <c r="T94" t="n">
+        <v>353</v>
+      </c>
+      <c r="U94" t="n">
+        <v>217</v>
+      </c>
+      <c r="V94" t="n">
+        <v>15.57254359681026</v>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-86</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.4196427504168909</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1.917228838006491</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-1.659864187240601</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-1.14820163071666</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.539102554321289</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-0.6036356131183069</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.6997196262835533</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.5067702228260916</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.3988210289616596</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2.388745424802984</v>
+      </c>
+      <c r="P95" t="n">
+        <v>-1.984057955788118</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>-0.005827445538883885</v>
+      </c>
+      <c r="R95" t="n">
+        <v>229</v>
+      </c>
+      <c r="S95" t="n">
+        <v>181</v>
+      </c>
+      <c r="T95" t="n">
+        <v>353</v>
+      </c>
+      <c r="U95" t="n">
+        <v>217</v>
+      </c>
+      <c r="V95" t="n">
+        <v>16.18920625702694</v>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-84</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.4196274916278284</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.917243619958395</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-1.65988290309906</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-1.148235813980438</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.539118051528931</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.5686968008624476</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.6997212408894435</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.5067548620914629</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.3987924961591326</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2.353690972266921</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-2.025422754911536</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-0.004947991420834462</v>
+      </c>
+      <c r="R96" t="n">
+        <v>232</v>
+      </c>
+      <c r="S96" t="n">
+        <v>181</v>
+      </c>
+      <c r="T96" t="n">
+        <v>353</v>
+      </c>
+      <c r="U96" t="n">
+        <v>218</v>
+      </c>
+      <c r="V96" t="n">
+        <v>17.00285263875736</v>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-82</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.419624153767721</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1.917246957818502</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-1.659845232963562</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-1.148213641052582</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.539106249809265</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.5338276068316858</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.6997377343932021</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.5067606433261254</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.3988163534386983</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2.317993393822119</v>
+      </c>
+      <c r="P97" t="n">
+        <v>-2.066117325024294</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-0.003872583555582973</v>
+      </c>
+      <c r="R97" t="n">
+        <v>229</v>
+      </c>
+      <c r="S97" t="n">
+        <v>181</v>
+      </c>
+      <c r="T97" t="n">
+        <v>353</v>
+      </c>
+      <c r="U97" t="n">
+        <v>217</v>
+      </c>
+      <c r="V97" t="n">
+        <v>16.18920625702694</v>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-80</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.4196308294879358</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1.917259355584616</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-1.659875988960266</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-1.148228989248611</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.539099097251892</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.4989069143878382</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.6997247802339795</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.5067619450556115</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.3987844814726537</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.281514892450676</v>
+      </c>
+      <c r="P98" t="n">
+        <v>-2.106237347562049</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-0.002966605449798064</v>
+      </c>
+      <c r="R98" t="n">
+        <v>230</v>
+      </c>
+      <c r="S98" t="n">
+        <v>181</v>
+      </c>
+      <c r="T98" t="n">
+        <v>353</v>
+      </c>
+      <c r="U98" t="n">
+        <v>217</v>
+      </c>
+      <c r="V98" t="n">
+        <v>16.31385242626056</v>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-78</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.4196589628802698</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1.917243619958395</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-1.65988290309906</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-1.148228959446289</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.539121508598328</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.4640114943133753</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.699706191820142</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.5067768420154216</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.3987932948869604</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2.244387903779091</v>
+      </c>
+      <c r="P99" t="n">
+        <v>-2.145751833782592</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-0.001976757769491801</v>
+      </c>
+      <c r="R99" t="n">
+        <v>230</v>
+      </c>
+      <c r="S99" t="n">
+        <v>180</v>
+      </c>
+      <c r="T99" t="n">
+        <v>353</v>
+      </c>
+      <c r="U99" t="n">
+        <v>217</v>
+      </c>
+      <c r="V99" t="n">
+        <v>16.74197038529311</v>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-76</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.4196661154376429</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1.917225500146383</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-1.659879446029663</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-1.148213641052582</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.539117932319641</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.4290888945208948</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.6997015687781164</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.5067818408593203</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.3988126442805404</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.206567020083762</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-2.184616624239998</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-0.0009312622016682572</v>
+      </c>
+      <c r="R100" t="n">
+        <v>229</v>
+      </c>
+      <c r="S100" t="n">
+        <v>180</v>
+      </c>
+      <c r="T100" t="n">
+        <v>352</v>
+      </c>
+      <c r="U100" t="n">
+        <v>217</v>
+      </c>
+      <c r="V100" t="n">
+        <v>16.74197038529311</v>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-74</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.4196308294879358</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1.917222162286276</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-1.659867525100708</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-1.148186431532242</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.539102554321289</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.3941820303546351</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.699724881177459</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.506761517346944</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.3988263458633771</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2.168140074510184</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-2.222754087204965</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.0001295494810856061</v>
+      </c>
+      <c r="R101" t="n">
+        <v>228</v>
+      </c>
+      <c r="S101" t="n">
+        <v>179</v>
+      </c>
+      <c r="T101" t="n">
+        <v>352</v>
+      </c>
+      <c r="U101" t="n">
+        <v>217</v>
+      </c>
+      <c r="V101" t="n">
+        <v>17.03776779562563</v>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-72</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.4196203390704554</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1.917256017724508</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-1.659895181655884</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-1.148232356911041</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.539095759391785</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.3592832724200647</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.6997226400133425</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-0.5067516888191019</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.3987746859775925</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2.129012123205898</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-2.260203676221184</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.0009694700269709881</v>
+      </c>
+      <c r="R102" t="n">
+        <v>229</v>
+      </c>
+      <c r="S102" t="n">
+        <v>179</v>
+      </c>
+      <c r="T102" t="n">
+        <v>352</v>
+      </c>
+      <c r="U102" t="n">
+        <v>217</v>
+      </c>
+      <c r="V102" t="n">
+        <v>17.16817243518199</v>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-70</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.4196122328387659</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1.917256017724508</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-1.659879446029663</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-1.148217038517334</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.539083242416382</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.3244102636920374</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.6997329471341537</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.5067503732855478</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.3987865767948631</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2.089300675495966</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-2.296985285943379</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.002011331808387606</v>
+      </c>
+      <c r="R103" t="n">
+        <v>229</v>
+      </c>
+      <c r="S103" t="n">
+        <v>179</v>
+      </c>
+      <c r="T103" t="n">
+        <v>352</v>
+      </c>
+      <c r="U103" t="n">
+        <v>216</v>
+      </c>
+      <c r="V103" t="n">
+        <v>16.74197038529311</v>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-68</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.4196274916278284</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1.917256017724508</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-1.659895181655884</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-1.148205117588379</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.539083242416382</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.2894957701312464</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.69972135257615</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.5067593103637078</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.3987779609905282</v>
+      </c>
+      <c r="O104" t="n">
+        <v>2.048884669166197</v>
+      </c>
+      <c r="P104" t="n">
+        <v>-2.333141784733231</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.002995744428956881</v>
+      </c>
+      <c r="R104" t="n">
+        <v>229</v>
+      </c>
+      <c r="S104" t="n">
+        <v>179</v>
+      </c>
+      <c r="T104" t="n">
+        <v>352</v>
+      </c>
+      <c r="U104" t="n">
+        <v>217</v>
+      </c>
+      <c r="V104" t="n">
+        <v>17.16817243518199</v>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-66</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.4196236769305628</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1.917256017724508</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-1.65988302230835</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-1.148232505922653</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.539114475250244</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.2545836607562464</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.6997257887903303</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-0.5067538172587558</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.3987823452285263</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2.007890240010475</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-2.368591661029195</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.003942906703075467</v>
+      </c>
+      <c r="R105" t="n">
+        <v>229</v>
+      </c>
+      <c r="S105" t="n">
+        <v>179</v>
+      </c>
+      <c r="T105" t="n">
+        <v>352</v>
+      </c>
+      <c r="U105" t="n">
+        <v>216</v>
+      </c>
+      <c r="V105" t="n">
+        <v>16.74197038529311</v>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.4196270147906702</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1.917243619958395</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-1.659875869750977</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-1.148251549606659</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.539137125015259</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.2196500937091272</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.6997229892607516</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.5067527933930673</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.398795041001927</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.96625380236917</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-2.40335679621419</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.004915966520987416</v>
+      </c>
+      <c r="R106" t="n">
+        <v>229</v>
+      </c>
+      <c r="S106" t="n">
+        <v>180</v>
+      </c>
+      <c r="T106" t="n">
+        <v>352</v>
+      </c>
+      <c r="U106" t="n">
+        <v>217</v>
+      </c>
+      <c r="V106" t="n">
+        <v>16.74197038529311</v>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.4196308294879358</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1.917256017724508</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-1.659879446029663</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-1.148217038517334</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.539102554321289</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.1847594420062464</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.6997244332993959</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-0.5067613414309728</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.3987865024960969</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.924047641319121</v>
+      </c>
+      <c r="P107" t="n">
+        <v>-2.437324027159172</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.005951207074441783</v>
+      </c>
+      <c r="R107" t="n">
+        <v>228</v>
+      </c>
+      <c r="S107" t="n">
+        <v>179</v>
+      </c>
+      <c r="T107" t="n">
+        <v>352</v>
+      </c>
+      <c r="U107" t="n">
+        <v>216</v>
+      </c>
+      <c r="V107" t="n">
+        <v>16.61442448912639</v>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.419649902974264</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1.917243619958395</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-1.659879446029663</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-1.148217038517334</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.539114475250244</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.1498239676104944</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.6997128624690064</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.5067723190435669</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.3987969372883741</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.881210420562614</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-2.470646504627148</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.006943805684654811</v>
+      </c>
+      <c r="R108" t="n">
+        <v>228</v>
+      </c>
+      <c r="S108" t="n">
+        <v>179</v>
+      </c>
+      <c r="T108" t="n">
+        <v>352</v>
+      </c>
+      <c r="U108" t="n">
+        <v>217</v>
+      </c>
+      <c r="V108" t="n">
+        <v>17.03776779562563</v>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.4196341673480433</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1.917243619958395</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-1.659867525100708</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-1.14823608220134</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.539102554321289</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.1149538199054163</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.6997221246959888</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-0.5067634138793561</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.3988023241710821</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.837910457762491</v>
+      </c>
+      <c r="P109" t="n">
+        <v>-2.503108004720208</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.007924582532298982</v>
+      </c>
+      <c r="R109" t="n">
+        <v>228</v>
+      </c>
+      <c r="S109" t="n">
+        <v>180</v>
+      </c>
+      <c r="T109" t="n">
+        <v>352</v>
+      </c>
+      <c r="U109" t="n">
+        <v>217</v>
+      </c>
+      <c r="V109" t="n">
+        <v>16.61442448912639</v>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.4196427504168909</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1.917243619958395</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-1.659863948822021</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-1.148232535724976</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.5390864610672</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.08004743257631475</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.6997185664951138</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-0.5067718153954925</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.3988050853489541</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.793981792178543</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-2.53487690679591</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.008926421645699666</v>
+      </c>
+      <c r="R110" t="n">
+        <v>228</v>
+      </c>
+      <c r="S110" t="n">
+        <v>180</v>
+      </c>
+      <c r="T110" t="n">
+        <v>352</v>
+      </c>
+      <c r="U110" t="n">
+        <v>217</v>
+      </c>
+      <c r="V110" t="n">
+        <v>16.61442448912639</v>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:55:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.4196155706988733</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.917240282098287</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-1.659860253334045</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-1.148213462238648</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.539118051528931</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-0.04511815706361944</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.6997364219762623</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-0.5067506004986546</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.3988124002759381</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.749554750696634</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-2.565915377078956</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.009914137533622254</v>
+      </c>
+      <c r="R111" t="n">
+        <v>227</v>
+      </c>
+      <c r="S111" t="n">
+        <v>181</v>
+      </c>
+      <c r="T111" t="n">
+        <v>352</v>
+      </c>
+      <c r="U111" t="n">
+        <v>217</v>
+      </c>
+      <c r="V111" t="n">
+        <v>16.06640053519666</v>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>2025-11-05 13:56:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
